--- a/user-data/uganda-child-marriage-male/uganda-child-marriage-male.xlsx
+++ b/user-data/uganda-child-marriage-male/uganda-child-marriage-male.xlsx
@@ -712,7 +712,7 @@
     <t xml:space="preserve">Units of measure: percent</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 27</t>
+    <t xml:space="preserve">Source: 28</t>
   </si>
   <si>
     <t xml:space="preserve"/>
